--- a/Products.xlsx
+++ b/Products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4111F79C-B968-478E-A1A6-DAAA7238EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2520F3-482B-46AF-861D-C67B7AC30CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,16 +304,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
@@ -325,9 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -922,12 +915,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
@@ -937,83 +930,83 @@
     <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1028,513 +1021,513 @@
       <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>125</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>116</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>125</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>116</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>120</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>98</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>88</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>90</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>88</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>180</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>76</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>58.7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>80</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>58</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>60</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>530</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>270</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>610</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>130</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>200</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>250</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>200</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>250</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>220</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>200</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>350</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>300</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>350</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>320</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>300</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>1800</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>1500</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>1800</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>160</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>1500</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>7200</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>6800</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>7200</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>6900</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>6800</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1550,12 +1543,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
@@ -1565,434 +1558,434 @@
     <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="5">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>75</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>50</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>58</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>52</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>52</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>49</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <v>43</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>40.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>52.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>39</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <v>230</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>312</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>200</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>155</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>160</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>200</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>130</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>130</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>150</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>250</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>150</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>150</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>170</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>700</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>750</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>700</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>700</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>750</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>3200</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>3700</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>3200</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>3200</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>3700</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Online shop - mongo MULTIimgs - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2520F3-482B-46AF-861D-C67B7AC30CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A624FC-FEAE-4A59-900A-2F075259E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4428" yWindow="-17160" windowWidth="13692" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камери" sheetId="1" r:id="rId1"/>
@@ -915,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Online shop - mongo MULTIimgs - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Online shop - mongo MULTIimgs - Linses AdminUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A624FC-FEAE-4A59-900A-2F075259E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496124DC-C92D-4F01-A6A3-1D11D20BEE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="-17160" windowWidth="13692" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="792" yWindow="-17880" windowWidth="17484" windowHeight="16788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камери" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Тип</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Ні</t>
+  </si>
+  <si>
+    <t>Вага.г</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C29" sqref="C29"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,13 +1546,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="30.109375" customWidth="1"/>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
         <v>230</v>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Online shop - mongo MULTIimgs - Linses AdminUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\MY PROJECTS\Online shop\Online shop - mongo MULTIimgs - Linses AdminUpdate - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496124DC-C92D-4F01-A6A3-1D11D20BEE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C27813C-19DF-4501-9F13-6F0267B28E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="-17880" windowWidth="17484" windowHeight="16788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="792" yWindow="-17880" windowWidth="17484" windowHeight="16788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Камери" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,6 +324,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -468,15 +475,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>422465</xdr:colOff>
+      <xdr:colOff>445325</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1714501</xdr:colOff>
+      <xdr:colOff>1737361</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>163481</xdr:rowOff>
+      <xdr:rowOff>148241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -506,7 +513,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6868985" y="3421380"/>
+          <a:off x="6891845" y="3398520"/>
           <a:ext cx="1292036" cy="1138841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -916,9 +923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,39 +1386,39 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>250</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>200</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>250</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>220</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="9">
         <v>200</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1461,7 +1468,7 @@
         <v>1800</v>
       </c>
       <c r="E16" s="1">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="F16" s="1">
         <v>1500</v>
@@ -1544,9 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640E3724-2806-4541-A6A8-0D209DE4DC16}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,39 +1844,39 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>100</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>200</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="9">
         <v>130</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="9">
         <v>100</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <v>130</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
